--- a/Data_Login.xlsx
+++ b/Data_Login.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Demo\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="13">
   <si>
     <t>Test_URL</t>
   </si>
@@ -42,6 +42,27 @@
   </si>
   <si>
     <t>abcd@1234</t>
+  </si>
+  <si>
+    <t>barakathk@hlwe.com</t>
+  </si>
+  <si>
+    <t>leems@hlwe.com</t>
+  </si>
+  <si>
+    <t>swaran@hlwe.com</t>
+  </si>
+  <si>
+    <t>francis@hlwe.com</t>
+  </si>
+  <si>
+    <t>linda@hlwe.com</t>
+  </si>
+  <si>
+    <t>adele@hlwe.com</t>
+  </si>
+  <si>
+    <t>tancs@hlwe.com</t>
   </si>
 </sst>
 </file>
@@ -368,16 +389,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+      <selection activeCell="C7" sqref="C7:C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -403,8 +424,94 @@
         <v>5</v>
       </c>
     </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" t="s">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B3" r:id="rId1" display="mailto:barakathk@hlwe.com"/>
+    <hyperlink ref="B4" r:id="rId2" display="mailto:leems@hlwe.com"/>
+    <hyperlink ref="B5" r:id="rId3" display="mailto:swaran@hlwe.com"/>
+    <hyperlink ref="B6" r:id="rId4" display="mailto:francis@hlwe.com"/>
+    <hyperlink ref="B7" r:id="rId5" display="mailto:linda@hlwe.com"/>
+    <hyperlink ref="B8" r:id="rId6" display="mailto:adele@hlwe.com"/>
+    <hyperlink ref="B9" r:id="rId7" display="mailto:tancs@hlwe.com"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId8"/>
 </worksheet>
 </file>